--- a/vba_Lawson10_JournalEntry_with_Query.xlsx
+++ b/vba_Lawson10_JournalEntry_with_Query.xlsx
@@ -4,41 +4,183 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="360" yWindow="510" windowWidth="14940" windowHeight="8910"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="4" r:id="rId1"/>
-    <sheet name="Report" sheetId="1" r:id="rId2"/>
-    <sheet name="Upload" sheetId="5" r:id="rId3"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Single Upload" sheetId="5" r:id="rId2"/>
+    <sheet name="Multi Upload" sheetId="8" r:id="rId3"/>
     <sheet name="Query" sheetId="6" r:id="rId4"/>
+    <sheet name="Balances" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="hdrAuRev">Upload!$I$9</definedName>
-    <definedName name="hdrCo">Upload!$B$9</definedName>
-    <definedName name="hdrCtrlGrp">Upload!$D$9</definedName>
-    <definedName name="hdrDesc">Upload!$K$9</definedName>
-    <definedName name="hdrDoc">Upload!$N$9</definedName>
-    <definedName name="hdrFC">Upload!$A$9</definedName>
-    <definedName name="hdrJeSeq">Upload!$E$9</definedName>
-    <definedName name="hdrJeType">Upload!$C$9</definedName>
-    <definedName name="hdrPostDate">Upload!$F$9</definedName>
-    <definedName name="hdrRef">Upload!$M$9</definedName>
-    <definedName name="hdrResponse">Upload!$O$9</definedName>
-    <definedName name="hdrRevPd">Upload!$J$9</definedName>
-    <definedName name="hdrSrc">Upload!$H$9</definedName>
-    <definedName name="hdrSys">Upload!$G$9</definedName>
-    <definedName name="hdrTranDate">Upload!$L$9</definedName>
-    <definedName name="Instr_Home">Instructions!$A$1</definedName>
-    <definedName name="Instr_HomeCell">Instructions!$A$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Report!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Report!$1:$11</definedName>
+    <definedName name="hdrAuRev" localSheetId="1">'Single Upload'!$I$9</definedName>
+    <definedName name="hdrCo" localSheetId="1">'Single Upload'!$B$9</definedName>
+    <definedName name="hdrCtrlGrp" localSheetId="1">'Single Upload'!$D$9</definedName>
+    <definedName name="hdrDesc" localSheetId="1">'Single Upload'!$K$9</definedName>
+    <definedName name="hdrDoc" localSheetId="1">'Single Upload'!$N$9</definedName>
+    <definedName name="hdrFC" localSheetId="1">'Single Upload'!$A$9</definedName>
+    <definedName name="hdrJeSeq" localSheetId="1">'Single Upload'!$E$9</definedName>
+    <definedName name="hdrJeType" localSheetId="1">'Single Upload'!$C$9</definedName>
+    <definedName name="hdrPostDate" localSheetId="1">'Single Upload'!$F$9</definedName>
+    <definedName name="hdrRef" localSheetId="1">'Single Upload'!$M$9</definedName>
+    <definedName name="hdrResponse" localSheetId="1">'Single Upload'!$O$9</definedName>
+    <definedName name="hdrRevPd" localSheetId="1">'Single Upload'!$J$9</definedName>
+    <definedName name="hdrSrc" localSheetId="1">'Single Upload'!$H$9</definedName>
+    <definedName name="hdrSys" localSheetId="1">'Single Upload'!$G$9</definedName>
+    <definedName name="hdrTranDate" localSheetId="1">'Single Upload'!$L$9</definedName>
+    <definedName name="Instr_Home">#REF!</definedName>
+    <definedName name="Instr_HomeCell">#REF!</definedName>
+    <definedName name="max_records" localSheetId="3">Query!$Q$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Report!$1:$11</definedName>
+    <definedName name="query_account" localSheetId="4">Balances!$C$4</definedName>
+    <definedName name="query_account" localSheetId="3">Query!$D$3</definedName>
+    <definedName name="query_acctunit" localSheetId="4">Balances!$C$3</definedName>
+    <definedName name="query_acctunit" localSheetId="3">Query!$D$2</definedName>
+    <definedName name="query_company" localSheetId="4">Balances!$C$1</definedName>
+    <definedName name="query_company" localSheetId="3">Query!$D$1</definedName>
+    <definedName name="query_errors" localSheetId="4">Balances!$A$6</definedName>
+    <definedName name="query_errors" localSheetId="3">Query!$A$6</definedName>
+    <definedName name="query_fy" localSheetId="4">Balances!$C$2</definedName>
+    <definedName name="query_fy" localSheetId="3">Query!$D$4</definedName>
+    <definedName name="query_output" localSheetId="4">Balances!$A$8</definedName>
+    <definedName name="query_output" localSheetId="3">Query!$A$8</definedName>
+    <definedName name="query_period" localSheetId="4">Balances!$C$5</definedName>
+    <definedName name="query_period" localSheetId="3">Query!$D$5</definedName>
+    <definedName name="Start_Header_Section" localSheetId="2">'Multi Upload'!$A$6</definedName>
+    <definedName name="Start_JE_Detail_Section" localSheetId="2">'Multi Upload'!$A$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joe Carey, CPA</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This cell marks the start of the JE Headers section. The next row must be the Lawson field names, and header data on subsequent rows. Insert as many rows as you need before the detail section.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lawson field names go on this row. Fields may be reordered or deleted as long as FC is in column A.
+Available fields are:
+FC
+COMPANY
+FISCAL-YEAR
+ACCT-PERIOD
+SYSTEM
+JE-TYPE
+AUTO-REV
+CONTROL-GROUP
+JE-SEQUENCE
+DESCRIPTION
+POSTING-DATE
+SOURCE-CODE
+AUTO-REV-PD
+DATE
+REFERENCE
+DOCUMENT-NBR
+Response</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This cell marks the end of the JE Headers section and the start of the JE Details section. The next row must be the Lawson field names, and detail data on subsequent rows.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lawson field names go on this row. Fields may be reordered or deleted as long as FC is in column A.
+Available fields are:
+FC
+COMPANY
+FISCAL-YEAR
+ACCT-PERIOD
+SYSTEM
+JE-TYPE
+AUTO-REV
+CONTROL-GROUP
+TO-COMPANY
+LINE-NBR
+ACCT-UNIT
+ACCOUNT
+SUB-ACCOUNT
+ACTIVITY
+ACCT-CATEGORY
+AUTO-REV
+TRAN-AMOUNT
+DESCRIPTION
+REFERENCE
+Response</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joe Carey, CPA</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This row is read for Lawson field names. Any valid GLTRANS field name is acceptable, or any predefined related table fields (eg ACTIVITY.DESCRIPTION). Fields can be added or deleted or reordered to suit your requirements.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>Company</t>
   </si>
@@ -127,37 +269,19 @@
     <t>Acct Cat</t>
   </si>
   <si>
-    <t xml:space="preserve">   Reference                         Document                                               Journal Book            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Line   Co           Account                     Activity         Ref    SC Rvs                    Debit                    Credit</t>
   </si>
   <si>
     <t>------ ---- --------------------------- --------------------- ---------- -- --- ------------------------- -------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">                                     Reverse  . . . . .                    0.00                      0.00                      0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     Unit . . . . . . .                    0.00                      0.00                      0.00</t>
-  </si>
-  <si>
     <t>Company:</t>
   </si>
   <si>
-    <t>Lookup AP Images:</t>
-  </si>
-  <si>
     <t>Acct Unit:</t>
   </si>
   <si>
-    <t>Open invoices:</t>
-  </si>
-  <si>
     <t>Account:</t>
-  </si>
-  <si>
-    <t>60100</t>
   </si>
   <si>
     <t>Max Records:</t>
@@ -227,9 +351,6 @@
     <t>TRAN-AMOUNT</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>AUTO-REV</t>
   </si>
   <si>
@@ -248,16 +369,165 @@
     <t>Error messages go here:</t>
   </si>
   <si>
+    <t>STATUS,xlt</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>AcctUnit</t>
+  </si>
+  <si>
+    <t>SubAcct</t>
+  </si>
+  <si>
+    <t>Account Description</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>=SUM(OFFSET([@FY],0,1,1,query_period+1))</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Fr
+Co</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Sys</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Auto
+Rev</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>Posting
+Date</t>
+  </si>
+  <si>
+    <t>Results from GL40.2</t>
+  </si>
+  <si>
+    <t>To
+Co</t>
+  </si>
+  <si>
+    <t>A/U</t>
+  </si>
+  <si>
+    <t>AC10</t>
+  </si>
+  <si>
+    <t>Acct
+Cat</t>
+  </si>
+  <si>
+    <t>Results from GL40.1</t>
+  </si>
+  <si>
+    <t>CONTROL-GROUP</t>
+  </si>
+  <si>
+    <t>JE-SEQUENCE</t>
+  </si>
+  <si>
+    <t>POSTING-DATE</t>
+  </si>
+  <si>
+    <t>TO-COMPANY</t>
+  </si>
+  <si>
+    <t>LINE-NBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     Unit . . . . . . .                    0.00                      0.00                      0.00</t>
+  </si>
+  <si>
+    <t>001-&gt;9999</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Reference                         Document                                               Journal Book            </t>
+  </si>
+  <si>
+    <t>Beginning Balance</t>
+  </si>
+  <si>
+    <t>Jan Activity</t>
+  </si>
+  <si>
+    <t>Feb Activity</t>
+  </si>
+  <si>
+    <t>Mar Activity</t>
+  </si>
+  <si>
+    <t>Apr Activity</t>
+  </si>
+  <si>
+    <t>May Activity</t>
+  </si>
+  <si>
+    <t>Jun Activity</t>
+  </si>
+  <si>
+    <t>Jul Activity</t>
+  </si>
+  <si>
+    <t>Aug Activity</t>
+  </si>
+  <si>
+    <t>Sep Activity</t>
+  </si>
+  <si>
+    <t>Oct Activity</t>
+  </si>
+  <si>
+    <t>Nov Activity</t>
+  </si>
+  <si>
+    <t>Dec Activity</t>
+  </si>
+  <si>
+    <t>Ending Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     Reverse  . . . . .                    0.00                      0.00                      0.00</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL240 Date 08/12/16                          Company      -                                                            </t>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>15300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL240 Date 02/02/17                          Company      -                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Time 14:10                             Journal Edit Listing</t>
   </si>
   <si>
     <t xml:space="preserve">                                             For Fiscal Year  - Periods  - </t>
@@ -279,57 +549,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                     Entered  . . . . .                    0.00                      0.00                      0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Time 13:08                             Journal Edit Listing</t>
-  </si>
-  <si>
-    <t>Report Tab</t>
-  </si>
-  <si>
-    <t>Output only - read, print, or save-as PDF file.</t>
-  </si>
-  <si>
-    <t>Upload Tab</t>
-  </si>
-  <si>
-    <t>Required fields</t>
-  </si>
-  <si>
-    <t>Optional fields</t>
-  </si>
-  <si>
-    <t>System-generated fields</t>
-  </si>
-  <si>
-    <t>Query Tab</t>
-  </si>
-  <si>
-    <t>Query similar to Lawson GL90 screen. Fill in the highlighted fields and then click 'Query'.</t>
-  </si>
-  <si>
-    <t>The field names in row 8 define the data that will be queried. They can be rearranged or changed.</t>
-  </si>
-  <si>
-    <t>Click the "Open Invoices" checkbox in Q2 to also follow all of the invoice image links returned.</t>
-  </si>
-  <si>
-    <t>Click the "Lookup AP Images" checkbox in Q1 if 'OBJ-ID' and 'APDISTRIB.API-OBJ-ID' fields are included to bring in the</t>
-  </si>
-  <si>
-    <t>APINVOICE attachments for invoice image URLs.</t>
-  </si>
-  <si>
-    <t>Click the 'Upload' button to process any rows with an 'A', 'C', or 'D' in the</t>
-  </si>
-  <si>
-    <t>Click the 'Report' button to generate the GL240 equivalent report for the entry</t>
-  </si>
-  <si>
-    <t>referenced in the Header (GL40.2) section.</t>
-  </si>
-  <si>
-    <t>Function Code (FC) column and generate the GL240 report.</t>
   </si>
 </sst>
 </file>
@@ -339,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,12 +587,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -381,13 +594,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -446,14 +652,63 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,8 +739,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -554,90 +815,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="9" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Percent 2" xfId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -650,49 +1072,65 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$Q$1" lockText="1"/>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$Q$2" lockText="1"/>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="absolute">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>990600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="Button 1" hidden="1">
+            <xdr:cNvPr id="6147" name="JournalEntryReport" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
+                  <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -707,24 +1145,6 @@
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="0000FF"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Upload</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
@@ -733,25 +1153,25 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="absolute">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Button 2" hidden="1">
+            <xdr:cNvPr id="6148" name="JournalsUpload" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
+                  <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -766,24 +1186,6 @@
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="0000FF"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Report</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
@@ -797,25 +1199,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="absolute">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="Button 1" hidden="1">
+            <xdr:cNvPr id="9218" name="JournalsUpload" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
+                  <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -830,24 +1232,6 @@
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="0000FF"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Query</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
@@ -858,23 +1242,69 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7170" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="9220" name="auto_clear_numbers" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7170"/>
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7173" name="GL_Query" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7173"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -900,22 +1330,150 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7171" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="7174" name="include_images" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7171"/>
+                  <a14:compatExt spid="_x0000_s7174"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7175" name="exclude_checks" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7175"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7176" name="open_images" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7176"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1428750</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8194" name="BalanceQuery" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -937,6 +1495,37 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Results" displayName="Results" ref="A8:T9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A8:T9"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Co" dataDxfId="19"/>
+    <tableColumn id="2" name="AcctUnit" dataDxfId="18"/>
+    <tableColumn id="3" name="Account" dataDxfId="17"/>
+    <tableColumn id="4" name="SubAcct" dataDxfId="16"/>
+    <tableColumn id="5" name="Account Description" dataDxfId="15"/>
+    <tableColumn id="6" name="FY" dataDxfId="14"/>
+    <tableColumn id="7" name="Beginning Balance" dataDxfId="13"/>
+    <tableColumn id="8" name="Jan Activity" dataDxfId="12"/>
+    <tableColumn id="9" name="Feb Activity" dataDxfId="11"/>
+    <tableColumn id="10" name="Mar Activity" dataDxfId="10"/>
+    <tableColumn id="11" name="Apr Activity" dataDxfId="9"/>
+    <tableColumn id="12" name="May Activity" dataDxfId="8"/>
+    <tableColumn id="13" name="Jun Activity" dataDxfId="7"/>
+    <tableColumn id="14" name="Jul Activity" dataDxfId="6"/>
+    <tableColumn id="15" name="Aug Activity" dataDxfId="5"/>
+    <tableColumn id="16" name="Sep Activity" dataDxfId="4"/>
+    <tableColumn id="17" name="Oct Activity" dataDxfId="3"/>
+    <tableColumn id="18" name="Nov Activity" dataDxfId="2"/>
+    <tableColumn id="19" name="Dec Activity" dataDxfId="1"/>
+    <tableColumn id="20" name="Ending Balance" dataDxfId="0">
+      <calculatedColumnFormula>SUM(OFFSET(Results[[#This Row],[FY]],0,1,1,query_period+1))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,277 +1876,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A22:J40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="22" spans="1:10">
-      <c r="A22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
-      <c r="B23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A25" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
-      <c r="C30" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="134.7109375" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="134.7109375" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
-        <v>71</v>
+      <c r="A1" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
-        <v>79</v>
+      <c r="A2" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
-        <v>72</v>
+      <c r="A3" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="22" t="s">
-        <v>73</v>
+      <c r="A5" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="22" t="s">
-        <v>74</v>
+      <c r="A6" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="22" t="s">
-        <v>75</v>
+      <c r="A7" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="22" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="22" t="s">
-        <v>76</v>
+      <c r="A12" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="22" t="s">
-        <v>77</v>
+      <c r="A13" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="22" t="s">
-        <v>32</v>
+      <c r="A14" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="22" t="s">
-        <v>78</v>
+      <c r="A15" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
+      <c r="A16" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1570,393 +1972,393 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="32" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="24">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12.75" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.75" thickBot="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="24">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" thickBot="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Function Code" error="Use only:_x000a__x000a_&quot;A&quot; for Add,_x000a_&quot;C&quot; for Change, or_x000a_&quot;D&quot; for Delete." sqref="A9 A15:A1048576">
       <formula1>"A, C, D, "</formula1>
@@ -1971,56 +2373,509 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6145" r:id="rId4" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Sheet3.inUpload" altText="Click to start upload process!">
-                <anchor>
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6146" r:id="rId5" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Sheet2.inJournalEditRpt" altText="Click to start upload process!">
-                <anchor>
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6147" r:id="rId4" name="JournalEntryReport">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6147" r:id="rId4" name="JournalEntryReport"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6148" r:id="rId6" name="JournalsUpload">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6148" r:id="rId6" name="JournalsUpload"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="32" customWidth="1"/>
+    <col min="16" max="17" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="55"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="55"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="40"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="27" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="22.5">
+      <c r="A7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="12.75">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="43"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="55"/>
+    </row>
+    <row r="10" spans="1:18" ht="27" thickBot="1">
+      <c r="A10" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24">
+      <c r="A11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="47"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" s="58">
+        <f>B$8</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="58">
+        <f t="shared" ref="C13:F14" si="0">C$8</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="58">
+        <f>H$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="58">
+        <f t="shared" ref="B14" si="1">B$8</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="58">
+        <f t="shared" ref="G14" si="2">H$8</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A9:A11 A1:A7"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Function Code" error="Use only:_x000a__x000a_&quot;A&quot; for Add,_x000a_&quot;C&quot; for Change, or_x000a_&quot;D&quot; for Delete." sqref="A8 A12:A1048576">
+      <formula1>"A, C, D, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId4" name="auto_clear_numbers">
+          <controlPr autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId4" name="auto_clear_numbers"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9218" r:id="rId6" name="JournalsUpload">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9218" r:id="rId6" name="JournalsUpload"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -2031,280 +2886,505 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="26"/>
-    <col min="4" max="4" width="10.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="6" style="26" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="26"/>
-    <col min="10" max="10" width="3.28515625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="8.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="24"/>
+    <col min="4" max="4" width="10.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="24"/>
+    <col min="10" max="10" width="3.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="24"/>
+    <col min="13" max="15" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="24" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="24"/>
+    <col min="20" max="20" width="13.42578125" style="24" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.9" customHeight="1" thickBot="1">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:22" ht="13.5" thickBot="1">
+      <c r="C2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" thickBot="1">
+      <c r="C3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" thickBot="1">
+      <c r="C4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" thickBot="1">
+      <c r="C5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="P5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="P1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="13.5" thickBot="1">
-      <c r="C2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="P2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" thickBot="1">
-      <c r="C3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="P3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" thickBot="1">
-      <c r="C4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" thickBot="1">
-      <c r="C5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="Q5" s="26">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:22" customFormat="1">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="H8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="L8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="M8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="N8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="O8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="P8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="Q8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="S8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="T8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="U8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="V8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A9:V164">
+    <sortCondition ref="T9:T164"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="G1:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7173" r:id="rId4" name="GL_Query">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7173" r:id="rId4" name="GL_Query"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7174" r:id="rId6" name="include_images">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7174" r:id="rId6" name="include_images"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7175" r:id="rId8" name="exclude_checks">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7175" r:id="rId8" name="exclude_checks"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7176" r:id="rId10" name="open_images">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7176" r:id="rId10" name="open_images"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="13.7109375" style="37" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="14.85546875" style="37" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="15.28515625" style="37" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="12.75" thickBot="1">
+      <c r="B1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="12.75" thickBot="1">
+      <c r="B2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="12.75" thickBot="1">
+      <c r="B3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="12.75" thickBot="1">
+      <c r="B4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12.75" thickBot="1">
+      <c r="B5" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" ht="12.75">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="T7" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="12.75">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="57">
+        <f ca="1">SUM(OFFSET(Results[[#This Row],[FY]],0,1,1,query_period+1))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7169" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Sheet4.inGLInvoices" altText="Click to start upload process!">
-                <anchor>
-                  <from>
-                    <xdr:col>18</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>19</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7170" r:id="rId4" name="Check Box 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" altText="Lookup AP">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>16</xdr:col>
-                    <xdr:colOff>600075</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7171" r:id="rId5" name="Check Box 3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0" altText="Open in IE">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>16</xdr:col>
-                    <xdr:colOff>600075</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId3" name="BalanceQuery">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId3" name="BalanceQuery"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>